--- a/Alessio/donneeImp.xlsx
+++ b/Alessio/donneeImp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa44ulq\Desktop\git\GesProj2-Imprimante-AGM\Alessio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73E9FA1C-18DD-4A9B-9B2A-6EAA02EB530C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337831E9-3960-453D-BFE2-3A7CFF3D79D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30F15DB1-A129-475C-ADF3-F4D349643423}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>idImp</t>
   </si>
@@ -53,9 +53,6 @@
     <t>vitess</t>
   </si>
   <si>
-    <t>resolution</t>
-  </si>
-  <si>
     <t>rctoverso</t>
   </si>
   <si>
@@ -66,19 +63,40 @@
   </si>
   <si>
     <t>prixinitial</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>PIXMA TS9550</t>
+  </si>
+  <si>
+    <t>imppron</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="23"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FF323232"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,8 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BFADE4-A4EB-4140-9260-BB0747CFEAE7}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,31 +456,64 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.5">
+      <c r="B2">
+        <v>193</v>
+      </c>
+      <c r="C2">
+        <v>468</v>
+      </c>
+      <c r="D2">
+        <v>366</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
         <v>10</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="I3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Alessio/donneeImp.xlsx
+++ b/Alessio/donneeImp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa44ulq\Desktop\git\GesProj2-Imprimante-AGM\Alessio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337831E9-3960-453D-BFE2-3A7CFF3D79D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8435783C-4BCB-4C7E-9A6C-FD59E94A8465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30F15DB1-A129-475C-ADF3-F4D349643423}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Alessio/donneeImp.xlsx
+++ b/Alessio/donneeImp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa44ulq\Desktop\git\GesProj2-Imprimante-AGM\Alessio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8435783C-4BCB-4C7E-9A6C-FD59E94A8465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F287BA-5792-44EB-8461-27CA9D75B2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{30F15DB1-A129-475C-ADF3-F4D349643423}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{30F15DB1-A129-475C-ADF3-F4D349643423}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>idImp</t>
   </si>
@@ -68,17 +68,38 @@
     <t>240.00</t>
   </si>
   <si>
-    <t>PIXMA TS9550</t>
-  </si>
-  <si>
     <t>imppron</t>
+  </si>
+  <si>
+    <t>PIXMA</t>
+  </si>
+  <si>
+    <t>TS9550</t>
+  </si>
+  <si>
+    <t>poid</t>
+  </si>
+  <si>
+    <t>resolutiom imp</t>
+  </si>
+  <si>
+    <t>resolutin num</t>
+  </si>
+  <si>
+    <t>dispo</t>
+  </si>
+  <si>
+    <t>1200 x 2400 ppp</t>
+  </si>
+  <si>
+    <t>A3, A4, A5, B5, Lettre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +115,12 @@
     </font>
     <font>
       <sz val="30"/>
+      <color rgb="FF323232"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF323232"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -119,10 +146,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BFADE4-A4EB-4140-9260-BB0747CFEAE7}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,31 +484,43 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="37.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="37.5" x14ac:dyDescent="0.5">
       <c r="B2">
         <v>193</v>
       </c>
@@ -490,27 +530,45 @@
       <c r="D2">
         <v>366</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="29.25" x14ac:dyDescent="0.4">
-      <c r="I3" s="1"/>
+    <row r="3" spans="1:15" ht="29.25" x14ac:dyDescent="0.4">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
